--- a/output/fit_clients/fit_round_408.xlsx
+++ b/output/fit_clients/fit_round_408.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2173044644.283674</v>
+        <v>2055744488.460776</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08846397608977934</v>
+        <v>0.07594955435518337</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02952550267503583</v>
+        <v>0.03770385876190085</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1086522341.108387</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2588285105.116209</v>
+        <v>2490624230.830493</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1224191700775654</v>
+        <v>0.1390721807271337</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03590268921343588</v>
+        <v>0.03081320710811725</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1294142683.733506</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5060993873.826262</v>
+        <v>5215862584.94876</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1511322409077831</v>
+        <v>0.1076466840042592</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02667990505567946</v>
+        <v>0.03010987225091548</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>147</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2530497026.261605</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3577649011.886737</v>
+        <v>3765789185.974259</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1041464992289595</v>
+        <v>0.1035414967936231</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04355416245848417</v>
+        <v>0.0499947418396532</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>150</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1788824537.615621</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2686548783.290088</v>
+        <v>1936798070.492124</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1107862331532148</v>
+        <v>0.136102292218033</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03734603040273652</v>
+        <v>0.034697226893961</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>74</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1343274346.954484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2595800939.163805</v>
+        <v>2020100788.98779</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07482605116768214</v>
+        <v>0.08017771568015931</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03722828886135589</v>
+        <v>0.03777073616900808</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>128</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1297900473.407944</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3172124610.073134</v>
+        <v>3022325972.408194</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1350337778693285</v>
+        <v>0.1917775775255097</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0213664453247436</v>
+        <v>0.02950525869736815</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>130</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1586062380.159491</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2124051292.609479</v>
+        <v>2174989869.116387</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1562617582524949</v>
+        <v>0.1539277414346498</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02584636351040725</v>
+        <v>0.02374240295376535</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1062025655.724204</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5692252686.275675</v>
+        <v>5926751639.625587</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2030680858035892</v>
+        <v>0.1371496159537854</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05070770636910397</v>
+        <v>0.05008426944487236</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>172</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2846126496.038202</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2938678906.872768</v>
+        <v>3264743820.911894</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1295116829398999</v>
+        <v>0.1316623167797847</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04890862132836813</v>
+        <v>0.03820936317333521</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>169</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1469339392.104827</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2228824352.796778</v>
+        <v>2828420338.848401</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1452252899808433</v>
+        <v>0.1461403714402754</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0479271077587515</v>
+        <v>0.03464447360760493</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>138</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1114412123.79139</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3284042114.797727</v>
+        <v>4381538325.364247</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08749287326232512</v>
+        <v>0.0668847168936441</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02415468742997093</v>
+        <v>0.0214765819534284</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>137</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1642021148.706822</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3841942071.250859</v>
+        <v>2450074399.674895</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1302526939815233</v>
+        <v>0.1491123536730835</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03230694210365311</v>
+        <v>0.03290084829575572</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>131</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1920971009.110071</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1828161787.760191</v>
+        <v>1343185755.443787</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06637315406623626</v>
+        <v>0.08158413649885884</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04217631958931423</v>
+        <v>0.0402974548260784</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>914081053.8021424</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2637224996.483409</v>
+        <v>2128131155.024325</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08637716144096295</v>
+        <v>0.07344318458484496</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0349645031258416</v>
+        <v>0.04406944819847691</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>83</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1318612516.825995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4482854376.90778</v>
+        <v>3233714456.827511</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1295593297890192</v>
+        <v>0.1251290677954651</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04644019758254529</v>
+        <v>0.04175219248278372</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>120</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2241427199.221223</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2693002495.261307</v>
+        <v>2944706222.758267</v>
       </c>
       <c r="F18" t="n">
-        <v>0.168769780382368</v>
+        <v>0.1341050691538609</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03094400809268227</v>
+        <v>0.02506259971634312</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>134</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1346501300.136738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1023746853.477008</v>
+        <v>1246972148.592664</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1378355228873417</v>
+        <v>0.1686849093097649</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02723488135774365</v>
+        <v>0.02638566375473251</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>511873461.8058838</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2024648009.319665</v>
+        <v>2162853429.992214</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1422332121733581</v>
+        <v>0.160113566062858</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02719682116334275</v>
+        <v>0.02322381276707484</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>55</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1012324028.406868</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2517590472.025287</v>
+        <v>1778873129.540875</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06405757568201599</v>
+        <v>0.1018703191260495</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04168248161121507</v>
+        <v>0.03572057115016491</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>33</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1258795222.471371</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3090064425.699735</v>
+        <v>2824178541.115688</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1029847161389151</v>
+        <v>0.08839559956797302</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03810975396654982</v>
+        <v>0.05609777217644899</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>112</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1545032269.003132</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1306687058.862778</v>
+        <v>1450736346.961478</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1396255862888077</v>
+        <v>0.1721216916694135</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05198823919679794</v>
+        <v>0.05075690260749668</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>653343547.9776393</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2814677530.905413</v>
+        <v>3934473049.649172</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1419636434420683</v>
+        <v>0.1119454496642268</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03552178312561797</v>
+        <v>0.03266504266674215</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>121</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1407338813.172101</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1131279519.094385</v>
+        <v>1174955691.270827</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1164388930411102</v>
+        <v>0.07586207360200492</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03087500568643666</v>
+        <v>0.02697468697121265</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>565639793.3457462</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1156311059.173512</v>
+        <v>1363151204.518315</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1059154939453618</v>
+        <v>0.08818221263932999</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02644715063379956</v>
+        <v>0.02898419189888745</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>578155539.9493202</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3779388865.691443</v>
+        <v>4618949567.628444</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09845940061377965</v>
+        <v>0.1211157087376787</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01999044730456506</v>
+        <v>0.01911343177099464</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1889694453.971044</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2646274542.759839</v>
+        <v>3012425496.765045</v>
       </c>
       <c r="F28" t="n">
-        <v>0.101993488044943</v>
+        <v>0.1176047452953364</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03266476998259814</v>
+        <v>0.04699012176884667</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>135</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1323137251.903373</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3911970800.119722</v>
+        <v>5796989603.691545</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1121905824816915</v>
+        <v>0.1249382352444086</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03441882797858337</v>
+        <v>0.04643193908640982</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>180</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1955985422.988461</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1832320780.676806</v>
+        <v>2062715243.945202</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1123629919796997</v>
+        <v>0.08863879172955848</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03162081663968156</v>
+        <v>0.02784454811379918</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>916160408.699942</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1016971441.400339</v>
+        <v>1430367033.602823</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1080265286402617</v>
+        <v>0.08887969487043328</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03224350776449685</v>
+        <v>0.04159288938358893</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>508485715.259811</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1193561099.468544</v>
+        <v>1554133038.925842</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1185210494659336</v>
+        <v>0.1003008820946805</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02612339220986823</v>
+        <v>0.02469084783636307</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>596780554.6142126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2668502991.596813</v>
+        <v>1965972112.559197</v>
       </c>
       <c r="F33" t="n">
-        <v>0.144154740193132</v>
+        <v>0.1293377778843541</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04754639062084715</v>
+        <v>0.03770442324014692</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>122</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1334251519.65644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>980126033.214182</v>
+        <v>1034416862.475889</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1022835505186785</v>
+        <v>0.1193330215818468</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02216139106125612</v>
+        <v>0.01726674703429943</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>490063057.7155437</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>882098399.8443297</v>
+        <v>1274711457.414616</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08188746941567128</v>
+        <v>0.1083048058690138</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03748499191814658</v>
+        <v>0.03026007475721669</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>441049244.3609759</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2574552716.774792</v>
+        <v>2997021986.720767</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1511123639204185</v>
+        <v>0.1389292276254955</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02369365185500407</v>
+        <v>0.01779742652612482</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>103</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1287276374.406042</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2029369987.561236</v>
+        <v>2734162188.474821</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1054735416920829</v>
+        <v>0.09975348246441655</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03516014360246802</v>
+        <v>0.04054430038703258</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>111</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1014685025.110553</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2015661227.169164</v>
+        <v>2035045395.678246</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1176851473700014</v>
+        <v>0.106364382501547</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02541854157399041</v>
+        <v>0.02924730084059312</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1007830590.012087</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1381925610.408426</v>
+        <v>2011446646.571888</v>
       </c>
       <c r="F39" t="n">
-        <v>0.166476183344393</v>
+        <v>0.1716405673172403</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02029450744396936</v>
+        <v>0.02965459828595017</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>690962893.6095867</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1592613026.477984</v>
+        <v>1742783594.620857</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1323627276939545</v>
+        <v>0.1330668638476918</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05633604003801005</v>
+        <v>0.03780129777735695</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>796306456.2659593</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2668477950.005811</v>
+        <v>2775398666.353926</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1024503329665719</v>
+        <v>0.1049085052307354</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04226205025243062</v>
+        <v>0.04191943750499579</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>105</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1334238983.78553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4275823813.860112</v>
+        <v>2786208404.587518</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1095144075653837</v>
+        <v>0.07784668708967961</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03912539305954514</v>
+        <v>0.0467415672289872</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>135</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2137911955.206552</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2345507115.424765</v>
+        <v>2248073207.682178</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2005236478981932</v>
+        <v>0.1417305986565638</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01800726828659193</v>
+        <v>0.01926777659644472</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>142</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1172753621.924675</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1617258717.289533</v>
+        <v>2303184283.599964</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06614855907970688</v>
+        <v>0.0933657450194911</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02842676432665418</v>
+        <v>0.03285468107886799</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>808629388.6444929</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2121862351.592535</v>
+        <v>2118586825.536431</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1873244589196442</v>
+        <v>0.1379177013183467</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04501323811757902</v>
+        <v>0.05287595415428571</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1060931178.999013</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4724869757.525944</v>
+        <v>4494673044.133427</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1550855229888643</v>
+        <v>0.1147283819329017</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04641265938674909</v>
+        <v>0.05461349259784228</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>145</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2362434889.809344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4187492116.456941</v>
+        <v>4161177452.246987</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1564067241850689</v>
+        <v>0.1777956397020841</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05172253554331726</v>
+        <v>0.04547695149800678</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>109</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2093746067.992344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4075958458.608188</v>
+        <v>2842458516.653687</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09234069035334891</v>
+        <v>0.0946558128289864</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03295232675473376</v>
+        <v>0.02929658788686472</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>132</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2037979259.304935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1291205038.405694</v>
+        <v>1606682570.067767</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1728249242795932</v>
+        <v>0.1552892371350857</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03842206088357829</v>
+        <v>0.02993310240250602</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>645602583.6924132</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3552547073.855628</v>
+        <v>3670972653.873797</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1400976913220119</v>
+        <v>0.1476720256480092</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04398891393401743</v>
+        <v>0.03716982225566654</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>139</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1776273557.466163</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1116737204.379758</v>
+        <v>1376556441.995396</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1590249900234794</v>
+        <v>0.173052518210612</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0477801221837548</v>
+        <v>0.04484756511154268</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>558368667.2573754</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3850389451.862177</v>
+        <v>4179245184.696854</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1363159280960245</v>
+        <v>0.08952735339281072</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05296019908496227</v>
+        <v>0.03782495816353056</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>168</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1925194791.225986</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2305217462.977919</v>
+        <v>3582544650.306924</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1722527051853513</v>
+        <v>0.1577296865390509</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02593707343626929</v>
+        <v>0.02175837361434078</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>117</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1152608811.913872</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3264841590.750292</v>
+        <v>4160473436.323948</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1613251328672665</v>
+        <v>0.1578129531906352</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04969099427448501</v>
+        <v>0.05095530103789655</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>132</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1632420801.73607</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4317497972.614559</v>
+        <v>4237542403.6319</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1505603784893084</v>
+        <v>0.156028185305452</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02028077315955459</v>
+        <v>0.02123854804995018</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2158748975.224562</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1439653640.426329</v>
+        <v>1719127670.243551</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1389527423444643</v>
+        <v>0.1400849338509869</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04358248022703286</v>
+        <v>0.04987450589064976</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>719826871.4248906</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3164508819.100857</v>
+        <v>3226231496.777666</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1280069255617926</v>
+        <v>0.1679810301611876</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02411341888722786</v>
+        <v>0.02325804095736859</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>130</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1582254427.782593</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1784910302.538291</v>
+        <v>1619075298.606309</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1845675774061798</v>
+        <v>0.1622487026525186</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03951181220227053</v>
+        <v>0.03376328422156599</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>892455156.4332966</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5306253801.997828</v>
+        <v>3857696775.911214</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1134230186813745</v>
+        <v>0.1118455604763735</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03051575657885061</v>
+        <v>0.04152619382310593</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>112</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2653126813.956725</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3763003768.95278</v>
+        <v>3475925246.384402</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1944777892793892</v>
+        <v>0.1597898177599736</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03303308113060935</v>
+        <v>0.02835089436135518</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>127</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1881502034.878265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2263978021.965884</v>
+        <v>2498512460.375275</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1644838964136381</v>
+        <v>0.1722394608363573</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02534554939450214</v>
+        <v>0.0256035381446161</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>141</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1131989060.875851</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1405441453.856222</v>
+        <v>1830435505.791332</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1661015185139559</v>
+        <v>0.1261780399983733</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04940952991380628</v>
+        <v>0.0370877207492039</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>702720695.8274497</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4215746271.366508</v>
+        <v>3942361796.864369</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1046428611195716</v>
+        <v>0.08084393851419752</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04537252656707869</v>
+        <v>0.04740329866777412</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>118</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2107873188.444458</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3508864348.117493</v>
+        <v>5447519388.502831</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1570116712619817</v>
+        <v>0.1174723523372647</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02944653794026583</v>
+        <v>0.02916936220952059</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>127</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1754432175.392252</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4615965744.254381</v>
+        <v>4949364802.289307</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1389261967519015</v>
+        <v>0.166701643469075</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02928619688699833</v>
+        <v>0.03151442148644302</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>146</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2307982853.968569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4909550139.537691</v>
+        <v>3923233139.567603</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1234083093911083</v>
+        <v>0.09861212505469942</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04829351573787233</v>
+        <v>0.03596900591125719</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>119</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2454775092.079885</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3404864817.506364</v>
+        <v>3339370584.077099</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06536908312231075</v>
+        <v>0.07046003039169206</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04125620275434559</v>
+        <v>0.03656787673460009</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>130</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1702432392.756152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5245993325.383793</v>
+        <v>4962328964.414393</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1295322915663424</v>
+        <v>0.1312555163480293</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03141489236747323</v>
+        <v>0.03163015050770421</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>132</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2622996734.00424</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1988797585.684083</v>
+        <v>2033465763.344091</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1753687822516941</v>
+        <v>0.1838140142182269</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04389732886765857</v>
+        <v>0.03919767782305456</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>994398796.349798</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2300142931.730014</v>
+        <v>3138823046.314573</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09131302714104619</v>
+        <v>0.07112141913478334</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0468101492682531</v>
+        <v>0.0301548519706149</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>116</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1150071397.302442</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3633563457.823746</v>
+        <v>4782388587.485396</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1645949066250068</v>
+        <v>0.114134670227595</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0333560936596552</v>
+        <v>0.02777640675535238</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>148</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1816781732.624627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1736594432.101928</v>
+        <v>2129030580.73171</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08133455735637786</v>
+        <v>0.1085935083228842</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05313238195375049</v>
+        <v>0.0408118921972857</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>868297204.8640523</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3345333856.844586</v>
+        <v>3576517873.880356</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08773746494857768</v>
+        <v>0.07865828920097465</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0402708109439796</v>
+        <v>0.03327847829573194</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>155</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1672666892.801244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3544208981.971461</v>
+        <v>2837928433.179614</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1195037030348175</v>
+        <v>0.1468030816136359</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03340419793916693</v>
+        <v>0.02661671010808633</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>139</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1772104509.371864</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2323334409.001736</v>
+        <v>2087954203.480346</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1391433914107253</v>
+        <v>0.1071066967930306</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0269252492757843</v>
+        <v>0.02690801147618438</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1161667138.35958</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3865184337.123425</v>
+        <v>4542503447.456355</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07666838271034269</v>
+        <v>0.07824918751823726</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02686044386752529</v>
+        <v>0.02091341557570691</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1932592147.664073</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2046562624.22479</v>
+        <v>1957891133.185171</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1859597906940503</v>
+        <v>0.1375810545405624</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02490501083470057</v>
+        <v>0.0255065431237614</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1023281380.503852</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4128121576.704861</v>
+        <v>2906853629.739719</v>
       </c>
       <c r="F78" t="n">
-        <v>0.116162727022308</v>
+        <v>0.1219890681712813</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04583484279547505</v>
+        <v>0.04344585357890195</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>142</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2064060744.933866</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1796659409.25478</v>
+        <v>1256091975.654033</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1131675753417971</v>
+        <v>0.1521038816359412</v>
       </c>
       <c r="G79" t="n">
-        <v>0.035251956614733</v>
+        <v>0.03050022576506102</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>898329790.752319</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5312329150.17909</v>
+        <v>3866847098.55707</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08888633661550399</v>
+        <v>0.07874833923080614</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03770859466565503</v>
+        <v>0.03503210323034291</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>85</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2656164639.833777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3295907177.713205</v>
+        <v>5148968300.938031</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09594012996398528</v>
+        <v>0.101963727901191</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02851870418406097</v>
+        <v>0.03005897342706451</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>92</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1647953525.941199</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3670234068.918139</v>
+        <v>4843484719.278737</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1570866605755628</v>
+        <v>0.1840403063728866</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02072299398170479</v>
+        <v>0.01813071471334736</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>144</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1835117092.642951</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2111829697.170954</v>
+        <v>2002930550.573821</v>
       </c>
       <c r="F83" t="n">
-        <v>0.118365889965513</v>
+        <v>0.114619923650122</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0379742513035646</v>
+        <v>0.0350897484678574</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1055914847.858609</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2349665349.406315</v>
+        <v>2367622506.565352</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1026531294837092</v>
+        <v>0.1161863734785486</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03494748251113936</v>
+        <v>0.03349749563789055</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1174832628.503693</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3595025736.858411</v>
+        <v>3089347302.428667</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1259629120050783</v>
+        <v>0.1392976075154313</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04115270561815143</v>
+        <v>0.04199874027203795</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>154</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1797512994.287816</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2285289930.707591</v>
+        <v>1758494232.39857</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1723754641549853</v>
+        <v>0.1705023032270478</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01842620118835637</v>
+        <v>0.02315339319512139</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>54</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1142645032.653322</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1141702043.63246</v>
+        <v>1161724912.221106</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1807175568097615</v>
+        <v>0.1314999434775415</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03838669655220158</v>
+        <v>0.04441815567495547</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>570851062.4706348</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3072696129.754288</v>
+        <v>3525107372.813611</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1681508428157389</v>
+        <v>0.1108276294292511</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02954858033541178</v>
+        <v>0.02921133035404407</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>161</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1536348102.514627</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2120107170.417878</v>
+        <v>3276599455.262221</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1205631165377915</v>
+        <v>0.1061378544796371</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03402447277595547</v>
+        <v>0.03035150902189904</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>138</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1060053687.846379</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2135687556.125014</v>
+        <v>1525995524.19387</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1273052871636506</v>
+        <v>0.08719442280716495</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03592255117570427</v>
+        <v>0.0510539079227822</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1067843873.191843</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1459413019.610243</v>
+        <v>2085555870.517023</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1773233981545276</v>
+        <v>0.1497400589593336</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04064653887405357</v>
+        <v>0.04239271933060393</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>729706554.1711245</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2998510053.599735</v>
+        <v>2508277558.132221</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07727555645360497</v>
+        <v>0.08670025979626013</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04758850179170452</v>
+        <v>0.04169595145400184</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>117</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1499255048.437127</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4206075974.017656</v>
+        <v>4853400303.280481</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09299340945820533</v>
+        <v>0.1264478665521659</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04927334002457754</v>
+        <v>0.04885964116825801</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>122</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2103037974.330483</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2311386640.382234</v>
+        <v>2374411902.004664</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1031510830970852</v>
+        <v>0.111378666203636</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02794352642828024</v>
+        <v>0.0273976712164817</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1155693359.143996</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3263342912.196408</v>
+        <v>2061751512.781211</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1214236681133726</v>
+        <v>0.1233030491474658</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04375280250206651</v>
+        <v>0.03282818862842866</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>99</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1631671436.697694</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2361055341.65211</v>
+        <v>2227894567.936451</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1092798288353926</v>
+        <v>0.09075951277033567</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03363165845122001</v>
+        <v>0.03454141064720997</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1180527619.273521</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4387543708.459179</v>
+        <v>4883937623.658422</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1748209956031865</v>
+        <v>0.1117610546673366</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01810898394158924</v>
+        <v>0.019079934905214</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>131</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2193771941.800992</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3087254310.19438</v>
+        <v>3235052928.480872</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09345143793223609</v>
+        <v>0.1127337721134133</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0293318899677981</v>
+        <v>0.02482956717073625</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>110</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1543627145.729482</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3397190970.221047</v>
+        <v>3221269026.646624</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1060935990820182</v>
+        <v>0.1304971066383208</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02175115804186981</v>
+        <v>0.03136106316991345</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>129</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1698595499.837275</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3999547952.509136</v>
+        <v>3604669114.822216</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1749418346076668</v>
+        <v>0.1780957351363958</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02447937974619489</v>
+        <v>0.02574241894483119</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>124</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1999774046.893922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2329624299.945134</v>
+        <v>2825528295.297436</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1749464158446839</v>
+        <v>0.1408673384292392</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03908387187227423</v>
+        <v>0.04703224276866868</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>165</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1164812150.439005</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_408.xlsx
+++ b/output/fit_clients/fit_round_408.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2055744488.460776</v>
+        <v>2199997108.261995</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07594955435518337</v>
+        <v>0.08339836421720594</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03770385876190085</v>
+        <v>0.03244425129896218</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2490624230.830493</v>
+        <v>1638054167.170177</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1390721807271337</v>
+        <v>0.1193337571802805</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03081320710811725</v>
+        <v>0.03576822670681127</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5215862584.94876</v>
+        <v>3179706141.596778</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1076466840042592</v>
+        <v>0.1434606161849274</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03010987225091548</v>
+        <v>0.02868775971878458</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3765789185.974259</v>
+        <v>3952685462.757319</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1035414967936231</v>
+        <v>0.06945194978262523</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0499947418396532</v>
+        <v>0.04764646814385808</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1936798070.492124</v>
+        <v>2328899727.756648</v>
       </c>
       <c r="F6" t="n">
-        <v>0.136102292218033</v>
+        <v>0.1419009452786562</v>
       </c>
       <c r="G6" t="n">
-        <v>0.034697226893961</v>
+        <v>0.03678488709417593</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2020100788.98779</v>
+        <v>2305489931.58174</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08017771568015931</v>
+        <v>0.09413682402268347</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03777073616900808</v>
+        <v>0.03941975456068726</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3022325972.408194</v>
+        <v>3080468603.628563</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1917775775255097</v>
+        <v>0.2046267151987123</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02950525869736815</v>
+        <v>0.02784515859440466</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2174989869.116387</v>
+        <v>1848495770.822268</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1539277414346498</v>
+        <v>0.1549262737862043</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02374240295376535</v>
+        <v>0.03063318884138314</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5926751639.625587</v>
+        <v>5317085689.735632</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1371496159537854</v>
+        <v>0.2083069562685376</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05008426944487236</v>
+        <v>0.05299274498299359</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3264743820.911894</v>
+        <v>4257896532.2089</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1316623167797847</v>
+        <v>0.1533492526746495</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03820936317333521</v>
+        <v>0.03670472455804415</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2828420338.848401</v>
+        <v>2429763771.655611</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1461403714402754</v>
+        <v>0.1907374173119396</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03464447360760493</v>
+        <v>0.04949962206667043</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4381538325.364247</v>
+        <v>3583889208.183002</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0668847168936441</v>
+        <v>0.08238724231574868</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0214765819534284</v>
+        <v>0.02471869676423803</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2450074399.674895</v>
+        <v>3374521426.712743</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1491123536730835</v>
+        <v>0.1250088992576414</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03290084829575572</v>
+        <v>0.02870157797277467</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1343185755.443787</v>
+        <v>1544811857.149594</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08158413649885884</v>
+        <v>0.07907644474903648</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0402974548260784</v>
+        <v>0.03961400488273225</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2128131155.024325</v>
+        <v>2420421191.726213</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07344318458484496</v>
+        <v>0.1113579427806938</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04406944819847691</v>
+        <v>0.05134224908383848</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3233714456.827511</v>
+        <v>4715138304.298248</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1251290677954651</v>
+        <v>0.1128504039008462</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04175219248278372</v>
+        <v>0.04335084376682663</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2944706222.758267</v>
+        <v>3837854251.672706</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1341050691538609</v>
+        <v>0.1358813434866573</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02506259971634312</v>
+        <v>0.03122875247985604</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1246972148.592664</v>
+        <v>982121723.6607922</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1686849093097649</v>
+        <v>0.1807004747181902</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02638566375473251</v>
+        <v>0.02232137848979466</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2162853429.992214</v>
+        <v>2300686485.225881</v>
       </c>
       <c r="F20" t="n">
-        <v>0.160113566062858</v>
+        <v>0.1390439379114232</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02322381276707484</v>
+        <v>0.02471531663252225</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1778873129.540875</v>
+        <v>1860949682.407513</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1018703191260495</v>
+        <v>0.08214975689286229</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03572057115016491</v>
+        <v>0.03138152365059146</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2824178541.115688</v>
+        <v>3835518321.476567</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08839559956797302</v>
+        <v>0.09061139265947955</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05609777217644899</v>
+        <v>0.0553306292468359</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1450736346.961478</v>
+        <v>1244021171.917803</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1721216916694135</v>
+        <v>0.1192801373517872</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05075690260749668</v>
+        <v>0.04471960627836221</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3934473049.649172</v>
+        <v>3543566913.12682</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1119454496642268</v>
+        <v>0.1426924824259546</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03266504266674215</v>
+        <v>0.02762850296746606</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1174955691.270827</v>
+        <v>1125297950.254118</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07586207360200492</v>
+        <v>0.09897784982560562</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02697468697121265</v>
+        <v>0.02044810030557398</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,16 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1363151204.518315</v>
+        <v>1398294661.000489</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08818221263932999</v>
+        <v>0.09492756121287231</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02898419189888745</v>
+        <v>0.0345345892362712</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4618949567.628444</v>
+        <v>3615677183.447081</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1211157087376787</v>
+        <v>0.1487235717587143</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01911343177099464</v>
+        <v>0.0208164936360498</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3012425496.765045</v>
+        <v>3665515000.985446</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1176047452953364</v>
+        <v>0.1372665608215364</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04699012176884667</v>
+        <v>0.0438032964836732</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5796989603.691545</v>
+        <v>5621066171.633923</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1249382352444086</v>
+        <v>0.1230087166738627</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04643193908640982</v>
+        <v>0.04389734005506844</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2062715243.945202</v>
+        <v>2309802230.944808</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08863879172955848</v>
+        <v>0.1134322694324719</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02784454811379918</v>
+        <v>0.03369842641073578</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1430367033.602823</v>
+        <v>1459829327.033879</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08887969487043328</v>
+        <v>0.1077725395436289</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04159288938358893</v>
+        <v>0.04574611750219646</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1554133038.925842</v>
+        <v>1242056959.109316</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1003008820946805</v>
+        <v>0.1172287031469007</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02469084783636307</v>
+        <v>0.03562839273456152</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1965972112.559197</v>
+        <v>2164609061.734011</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1293377778843541</v>
+        <v>0.2070055345958673</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03770442324014692</v>
+        <v>0.04697458632250716</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1034416862.475889</v>
+        <v>989309889.7967346</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1193330215818468</v>
+        <v>0.07874170833795013</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01726674703429943</v>
+        <v>0.02746690287082497</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1274711457.414616</v>
+        <v>930904937.3512486</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1083048058690138</v>
+        <v>0.1111829069487953</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03026007475721669</v>
+        <v>0.03881401594359658</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2997021986.720767</v>
+        <v>3063360705.355955</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1389292276254955</v>
+        <v>0.1472573469024145</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01779742652612482</v>
+        <v>0.02437830771555723</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2734162188.474821</v>
+        <v>2578954250.603721</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09975348246441655</v>
+        <v>0.07324109784627385</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04054430038703258</v>
+        <v>0.03834035253024343</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2035045395.678246</v>
+        <v>1791415715.040867</v>
       </c>
       <c r="F38" t="n">
-        <v>0.106364382501547</v>
+        <v>0.1109039114808928</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02924730084059312</v>
+        <v>0.02874643353095646</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2011446646.571888</v>
+        <v>2118633064.942934</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1716405673172403</v>
+        <v>0.1907349485353538</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02965459828595017</v>
+        <v>0.02093557732284497</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1742783594.620857</v>
+        <v>1762696489.486034</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1330668638476918</v>
+        <v>0.1597304077107682</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03780129777735695</v>
+        <v>0.04654055262205681</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2775398666.353926</v>
+        <v>1765918618.571971</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1049085052307354</v>
+        <v>0.165070240002576</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04191943750499579</v>
+        <v>0.04527284373101694</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2786208404.587518</v>
+        <v>4041451002.432631</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07784668708967961</v>
+        <v>0.09230163774363585</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0467415672289872</v>
+        <v>0.04670731434989762</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2248073207.682178</v>
+        <v>2384390877.334512</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1417305986565638</v>
+        <v>0.1334232251032658</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01926777659644472</v>
+        <v>0.02021726992930765</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2303184283.599964</v>
+        <v>2137864890.650541</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0933657450194911</v>
+        <v>0.0808739072841667</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03285468107886799</v>
+        <v>0.02901927136315032</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2118586825.536431</v>
+        <v>2049185463.930828</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1379177013183467</v>
+        <v>0.128214753805145</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05287595415428571</v>
+        <v>0.05611257222140714</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4494673044.133427</v>
+        <v>5127078621.526757</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1147283819329017</v>
+        <v>0.1541876489728247</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05461349259784228</v>
+        <v>0.03713945382727757</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4161177452.246987</v>
+        <v>4164179117.267381</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1777956397020841</v>
+        <v>0.1451125771683802</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04547695149800678</v>
+        <v>0.03594754035972642</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2842458516.653687</v>
+        <v>4373939823.557128</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0946558128289864</v>
+        <v>0.06940423082206376</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02929658788686472</v>
+        <v>0.02680322769929157</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1606682570.067767</v>
+        <v>1936056919.197196</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1552892371350857</v>
+        <v>0.1606241407361712</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02993310240250602</v>
+        <v>0.03720257592766494</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3670972653.873797</v>
+        <v>3144609097.489171</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1476720256480092</v>
+        <v>0.1485244707955004</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03716982225566654</v>
+        <v>0.04955393640037385</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1376556441.995396</v>
+        <v>1345095916.515423</v>
       </c>
       <c r="F51" t="n">
-        <v>0.173052518210612</v>
+        <v>0.1920382751415897</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04484756511154268</v>
+        <v>0.03572645396827788</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4179245184.696854</v>
+        <v>5163123234.520517</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08952735339281072</v>
+        <v>0.1131501993256208</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03782495816353056</v>
+        <v>0.06142755186986909</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3582544650.306924</v>
+        <v>3109167779.585596</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1577296865390509</v>
+        <v>0.203257041198416</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02175837361434078</v>
+        <v>0.03266337430290541</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4160473436.323948</v>
+        <v>4787077485.407136</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1578129531906352</v>
+        <v>0.1104171610880566</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05095530103789655</v>
+        <v>0.04365114081292359</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4237542403.6319</v>
+        <v>4164777506.00764</v>
       </c>
       <c r="F55" t="n">
-        <v>0.156028185305452</v>
+        <v>0.1457838375651438</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02123854804995018</v>
+        <v>0.02992552046222155</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1719127670.243551</v>
+        <v>1738945942.067742</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1400849338509869</v>
+        <v>0.1391974733341608</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04987450589064976</v>
+        <v>0.04387544003351219</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3226231496.777666</v>
+        <v>3688108554.817673</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1679810301611876</v>
+        <v>0.1337745951494967</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02325804095736859</v>
+        <v>0.02297461822027961</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,16 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1619075298.606309</v>
+        <v>1416665734.55813</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1622487026525186</v>
+        <v>0.1708778103234762</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03376328422156599</v>
+        <v>0.03631773983254056</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3857696775.911214</v>
+        <v>3415880897.530931</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1118455604763735</v>
+        <v>0.1221613564304598</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04152619382310593</v>
+        <v>0.04548512977029175</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3475925246.384402</v>
+        <v>3513389506.825598</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1597898177599736</v>
+        <v>0.1337934067940598</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02835089436135518</v>
+        <v>0.02281598563445723</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2498512460.375275</v>
+        <v>2283192703.4529</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1722394608363573</v>
+        <v>0.1146132088645468</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0256035381446161</v>
+        <v>0.02487394052244727</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1830435505.791332</v>
+        <v>2102594960.06196</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1261780399983733</v>
+        <v>0.1610591648294341</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0370877207492039</v>
+        <v>0.03801612591448494</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3942361796.864369</v>
+        <v>5210952715.334215</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08084393851419752</v>
+        <v>0.1035421452728273</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04740329866777412</v>
+        <v>0.04664515878967188</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5447519388.502831</v>
+        <v>4945517956.832609</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1174723523372647</v>
+        <v>0.1479053919925609</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02916936220952059</v>
+        <v>0.02454662832652995</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4949364802.289307</v>
+        <v>4131219460.119935</v>
       </c>
       <c r="F65" t="n">
-        <v>0.166701643469075</v>
+        <v>0.1424850031736472</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03151442148644302</v>
+        <v>0.03227982321076272</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3923233139.567603</v>
+        <v>4646338891.222697</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09861212505469942</v>
+        <v>0.1256373444620871</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03596900591125719</v>
+        <v>0.04126016596577629</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3339370584.077099</v>
+        <v>2729314858.990425</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07046003039169206</v>
+        <v>0.1026771350628643</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03656787673460009</v>
+        <v>0.03602501997408371</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4962328964.414393</v>
+        <v>4416908926.768409</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1312555163480293</v>
+        <v>0.1044460903695293</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03163015050770421</v>
+        <v>0.04778774049787372</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2033465763.344091</v>
+        <v>1671875511.798459</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1838140142182269</v>
+        <v>0.1405935451743917</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03919767782305456</v>
+        <v>0.04091945083082097</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3138823046.314573</v>
+        <v>2389640846.068487</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07112141913478334</v>
+        <v>0.07304070292794733</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0301548519706149</v>
+        <v>0.03788492235591506</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4782388587.485396</v>
+        <v>3413385361.820628</v>
       </c>
       <c r="F71" t="n">
-        <v>0.114134670227595</v>
+        <v>0.1832924756314344</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02777640675535238</v>
+        <v>0.02946588957688955</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2129030580.73171</v>
+        <v>1882511543.767007</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1085935083228842</v>
+        <v>0.0738712380059522</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0408118921972857</v>
+        <v>0.03808349502846808</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3576517873.880356</v>
+        <v>3092554513.634646</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07865828920097465</v>
+        <v>0.08137739502714608</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03327847829573194</v>
+        <v>0.04631201562830147</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2837928433.179614</v>
+        <v>2560052919.989327</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1468030816136359</v>
+        <v>0.1620691271110688</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02661671010808633</v>
+        <v>0.0252750545842927</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2087954203.480346</v>
+        <v>1540355269.711511</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1071066967930306</v>
+        <v>0.1483405073430869</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02690801147618438</v>
+        <v>0.03427791230373833</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4542503447.456355</v>
+        <v>4458416668.170671</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07824918751823726</v>
+        <v>0.1086143379665202</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02091341557570691</v>
+        <v>0.03038065487301661</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1957891133.185171</v>
+        <v>2260929848.27986</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1375810545405624</v>
+        <v>0.1265912653985245</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0255065431237614</v>
+        <v>0.02466749357998391</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2906853629.739719</v>
+        <v>4012072324.278969</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1219890681712813</v>
+        <v>0.09286838444647841</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04344585357890195</v>
+        <v>0.05522267238762472</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1256091975.654033</v>
+        <v>1687388926.222696</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1521038816359412</v>
+        <v>0.1574745133715343</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03050022576506102</v>
+        <v>0.03503501162666599</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3866847098.55707</v>
+        <v>4646103688.00425</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07874833923080614</v>
+        <v>0.09609813102638187</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03503210323034291</v>
+        <v>0.03662813853647956</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5148968300.938031</v>
+        <v>3732199695.066169</v>
       </c>
       <c r="F81" t="n">
-        <v>0.101963727901191</v>
+        <v>0.09410210482284717</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03005897342706451</v>
+        <v>0.02985342261050914</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4843484719.278737</v>
+        <v>3501907596.421965</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1840403063728866</v>
+        <v>0.1562116842232563</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01813071471334736</v>
+        <v>0.02507049931036058</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2002930550.573821</v>
+        <v>2394074481.25047</v>
       </c>
       <c r="F83" t="n">
-        <v>0.114619923650122</v>
+        <v>0.09624297746578823</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0350897484678574</v>
+        <v>0.03513865942949344</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2367622506.565352</v>
+        <v>2411861696.339673</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1161863734785486</v>
+        <v>0.09311532063593554</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03349749563789055</v>
+        <v>0.04104034222521333</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3089347302.428667</v>
+        <v>2872272699.112992</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1392976075154313</v>
+        <v>0.1573950063026552</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04199874027203795</v>
+        <v>0.04445115817508818</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1758494232.39857</v>
+        <v>2153153208.186882</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1705023032270478</v>
+        <v>0.1243492932595649</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02315339319512139</v>
+        <v>0.01860582927923691</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1161724912.221106</v>
+        <v>1013398444.569718</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1314999434775415</v>
+        <v>0.1613395853520525</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04441815567495547</v>
+        <v>0.03214808933734679</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3525107372.813611</v>
+        <v>3123231542.914055</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1108276294292511</v>
+        <v>0.1246789824378893</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02921133035404407</v>
+        <v>0.02995500944386606</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3276599455.262221</v>
+        <v>3339746615.320464</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1061378544796371</v>
+        <v>0.1443416651709368</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03035150902189904</v>
+        <v>0.03885673205405647</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1525995524.19387</v>
+        <v>1630310098.980664</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08719442280716495</v>
+        <v>0.091922063575079</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0510539079227822</v>
+        <v>0.03818512135239851</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2085555870.517023</v>
+        <v>1842445794.334237</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1497400589593336</v>
+        <v>0.1377587839203749</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04239271933060393</v>
+        <v>0.0571275964938473</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2508277558.132221</v>
+        <v>2268581953.370957</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08670025979626013</v>
+        <v>0.06797897685252055</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04169595145400184</v>
+        <v>0.04547496985019909</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4853400303.280481</v>
+        <v>5000312492.065755</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1264478665521659</v>
+        <v>0.1417925920176051</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04885964116825801</v>
+        <v>0.03786347549938274</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2374411902.004664</v>
+        <v>2385192218.750703</v>
       </c>
       <c r="F94" t="n">
-        <v>0.111378666203636</v>
+        <v>0.1563879833691785</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0273976712164817</v>
+        <v>0.02682744127601288</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2061751512.781211</v>
+        <v>2849727209.949914</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1233030491474658</v>
+        <v>0.1020323225384757</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03282818862842866</v>
+        <v>0.03967866958654892</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2227894567.936451</v>
+        <v>1877660116.101074</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09075951277033567</v>
+        <v>0.1261554713801326</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03454141064720997</v>
+        <v>0.02923647020177726</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4883937623.658422</v>
+        <v>4846131962.994654</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1117610546673366</v>
+        <v>0.1187045866868893</v>
       </c>
       <c r="G97" t="n">
-        <v>0.019079934905214</v>
+        <v>0.02687202856954836</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3235052928.480872</v>
+        <v>3226148956.80035</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1127337721134133</v>
+        <v>0.08295306624650828</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02482956717073625</v>
+        <v>0.02438101196290506</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3221269026.646624</v>
+        <v>2284484170.536365</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1304971066383208</v>
+        <v>0.1177732203408159</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03136106316991345</v>
+        <v>0.0258625898286505</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3604669114.822216</v>
+        <v>3530899337.901172</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1780957351363958</v>
+        <v>0.1790318829515371</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02574241894483119</v>
+        <v>0.0198526150301853</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2825528295.297436</v>
+        <v>2177998204.725808</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1408673384292392</v>
+        <v>0.181781577516073</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04703224276866868</v>
+        <v>0.04923072409497978</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_408.xlsx
+++ b/output/fit_clients/fit_round_408.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2199997108.261995</v>
+        <v>1519999645.218219</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08339836421720594</v>
+        <v>0.08127442399558356</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03244425129896218</v>
+        <v>0.0361152071956415</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1638054167.170177</v>
+        <v>1948160539.394958</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1193337571802805</v>
+        <v>0.1186212706023312</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03576822670681127</v>
+        <v>0.04979432236622847</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3179706141.596778</v>
+        <v>3771404506.442977</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1434606161849274</v>
+        <v>0.1170488553398531</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02868775971878458</v>
+        <v>0.02964341666286684</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>207</v>
+      </c>
+      <c r="J4" t="n">
+        <v>408</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3952685462.757319</v>
+        <v>2987578339.160785</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06945194978262523</v>
+        <v>0.08590980992133007</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04764646814385808</v>
+        <v>0.04277417509769759</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>166</v>
+      </c>
+      <c r="J5" t="n">
+        <v>407</v>
+      </c>
+      <c r="K5" t="n">
+        <v>37.36813419931801</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2328899727.756648</v>
+        <v>2673645771.374232</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1419009452786562</v>
+        <v>0.1042535938981554</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03678488709417593</v>
+        <v>0.05254669454079631</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2305489931.58174</v>
+        <v>3042792526.104005</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09413682402268347</v>
+        <v>0.1011483955760303</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03941975456068726</v>
+        <v>0.0311773863285519</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3080468603.628563</v>
+        <v>2976479644.479494</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2046267151987123</v>
+        <v>0.2150688830968274</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02784515859440466</v>
+        <v>0.02168488899863922</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>111</v>
+      </c>
+      <c r="J8" t="n">
+        <v>405</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1848495770.822268</v>
+        <v>1678056907.035644</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1549262737862043</v>
+        <v>0.1527079085741723</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03063318884138314</v>
+        <v>0.02400772394277028</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +777,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5317085689.735632</v>
+        <v>5056176032.743528</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2083069562685376</v>
+        <v>0.2098337562107987</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05299274498299359</v>
+        <v>0.04862468594465076</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>328</v>
+      </c>
+      <c r="J10" t="n">
+        <v>408</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4257896532.2089</v>
+        <v>4092144887.013647</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1533492526746495</v>
+        <v>0.1626644604874483</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03670472455804415</v>
+        <v>0.04908392361855935</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>169</v>
+      </c>
+      <c r="J11" t="n">
+        <v>408</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2429763771.655611</v>
+        <v>2057036989.996418</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1907374173119396</v>
+        <v>0.1864225461871497</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04949962206667043</v>
+        <v>0.04768649590533375</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +882,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3583889208.183002</v>
+        <v>3623782092.279658</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08238724231574868</v>
+        <v>0.09736533944978551</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02471869676423803</v>
+        <v>0.02149328165607659</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>213</v>
+      </c>
+      <c r="J13" t="n">
+        <v>407</v>
+      </c>
+      <c r="K13" t="n">
+        <v>41.50769743543148</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +925,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3374521426.712743</v>
+        <v>3352047419.706758</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1250088992576414</v>
+        <v>0.1633719879696856</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02870157797277467</v>
+        <v>0.03100282151742821</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>82</v>
+      </c>
+      <c r="J14" t="n">
+        <v>401</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1544811857.149594</v>
+        <v>1546607545.791433</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07907644474903648</v>
+        <v>0.07824876813729986</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03961400488273225</v>
+        <v>0.03883601260797409</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2420421191.726213</v>
+        <v>2583952657.665505</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1113579427806938</v>
+        <v>0.1149495285021185</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05134224908383848</v>
+        <v>0.03611559539614455</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1030,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4715138304.298248</v>
+        <v>5049514575.217265</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1128504039008462</v>
+        <v>0.1120325000156894</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04335084376682663</v>
+        <v>0.04935985735432828</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>197</v>
+      </c>
+      <c r="J17" t="n">
+        <v>408</v>
+      </c>
+      <c r="K17" t="n">
+        <v>46.23010243688433</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3837854251.672706</v>
+        <v>3195531478.94662</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1358813434866573</v>
+        <v>0.1680462310377453</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03122875247985604</v>
+        <v>0.02780319171371495</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>103</v>
+      </c>
+      <c r="J18" t="n">
+        <v>406</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>982121723.6607922</v>
+        <v>1185308359.364353</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1807004747181902</v>
+        <v>0.137367027579931</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02232137848979466</v>
+        <v>0.02028334509408114</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2300686485.225881</v>
+        <v>2025245554.512996</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1390439379114232</v>
+        <v>0.1168845164686332</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02471531663252225</v>
+        <v>0.02996568719505944</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1860949682.407513</v>
+        <v>2301386247.055879</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08214975689286229</v>
+        <v>0.09470351400562602</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03138152365059146</v>
+        <v>0.03651160745310727</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3835518321.476567</v>
+        <v>3256913602.144923</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09061139265947955</v>
+        <v>0.09303583465931931</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0553306292468359</v>
+        <v>0.04642895882594634</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>114</v>
+      </c>
+      <c r="J22" t="n">
+        <v>407</v>
+      </c>
+      <c r="K22" t="n">
+        <v>43.93786787814333</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1244021171.917803</v>
+        <v>1371136598.304635</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1192801373517872</v>
+        <v>0.156753023481184</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04471960627836221</v>
+        <v>0.05131231574517831</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1279,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3543566913.12682</v>
+        <v>3739024268.766459</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1426924824259546</v>
+        <v>0.1135693852829582</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02762850296746606</v>
+        <v>0.02829692087895233</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>128</v>
+      </c>
+      <c r="J24" t="n">
+        <v>406</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1125297950.254118</v>
+        <v>1231296940.374912</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09897784982560562</v>
+        <v>0.08993192849887154</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02044810030557398</v>
+        <v>0.03062308026182309</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1398294661.000489</v>
+        <v>939669764.3833629</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09492756121287231</v>
+        <v>0.09214884187089706</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0345345892362712</v>
+        <v>0.03492162845660246</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3615677183.447081</v>
+        <v>3181823037.841084</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1487235717587143</v>
+        <v>0.1061550480202142</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0208164936360498</v>
+        <v>0.02320201178066317</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>172</v>
+      </c>
+      <c r="J27" t="n">
+        <v>407</v>
+      </c>
+      <c r="K27" t="n">
+        <v>35.09613040897264</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3665515000.985446</v>
+        <v>3849112715.715528</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1372665608215364</v>
+        <v>0.09357816764861873</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0438032964836732</v>
+        <v>0.03727771947803901</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>98</v>
+      </c>
+      <c r="J28" t="n">
+        <v>408</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5621066171.633923</v>
+        <v>3759886993.672018</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1230087166738627</v>
+        <v>0.09230603211741426</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04389734005506844</v>
+        <v>0.03575431995394254</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>344</v>
+      </c>
+      <c r="J29" t="n">
+        <v>407</v>
+      </c>
+      <c r="K29" t="n">
+        <v>42.61482827610051</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1493,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2309802230.944808</v>
+        <v>2088919693.221236</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1134322694324719</v>
+        <v>0.1028396330246425</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03369842641073578</v>
+        <v>0.04023150142609229</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1459829327.033879</v>
+        <v>1217092677.819275</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1077725395436289</v>
+        <v>0.1000974677342695</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04574611750219646</v>
+        <v>0.04576232379441503</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1242056959.109316</v>
+        <v>1230572375.731357</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1172287031469007</v>
+        <v>0.09492229585373947</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03562839273456152</v>
+        <v>0.03467265940410133</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2164609061.734011</v>
+        <v>2433944036.091333</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2070055345958673</v>
+        <v>0.1815253863130228</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04697458632250716</v>
+        <v>0.04600840906199691</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>989309889.7967346</v>
+        <v>1128409529.435538</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07874170833795013</v>
+        <v>0.1179033453567562</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02746690287082497</v>
+        <v>0.01792916790742997</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>930904937.3512486</v>
+        <v>1362285556.211076</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1111829069487953</v>
+        <v>0.1140566565650643</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03881401594359658</v>
+        <v>0.03478103796480868</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3063360705.355955</v>
+        <v>2326191040.638449</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1472573469024145</v>
+        <v>0.1707806655780852</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02437830771555723</v>
+        <v>0.02036274886223685</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2578954250.603721</v>
+        <v>2520186542.000337</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07324109784627385</v>
+        <v>0.1124534774543756</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03834035253024343</v>
+        <v>0.03606679913709298</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1791415715.040867</v>
+        <v>2192093607.395704</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1109039114808928</v>
+        <v>0.07564003274671885</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02874643353095646</v>
+        <v>0.03688859566459969</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2118633064.942934</v>
+        <v>1720193638.736501</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1907349485353538</v>
+        <v>0.1893271221144542</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02093557732284497</v>
+        <v>0.02980230925451946</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1762696489.486034</v>
+        <v>1606407133.402096</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1597304077107682</v>
+        <v>0.1165401401631364</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04654055262205681</v>
+        <v>0.04512173663188333</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1765918618.571971</v>
+        <v>2286030752.515338</v>
       </c>
       <c r="F41" t="n">
-        <v>0.165070240002576</v>
+        <v>0.103417825817175</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04527284373101694</v>
+        <v>0.0412862455820704</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4041451002.432631</v>
+        <v>4125896559.553555</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09230163774363585</v>
+        <v>0.09680841299753436</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04670731434989762</v>
+        <v>0.03005395476974329</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>175</v>
+      </c>
+      <c r="J42" t="n">
+        <v>408</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2384390877.334512</v>
+        <v>2144351838.328297</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1334232251032658</v>
+        <v>0.1313294901028596</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02021726992930765</v>
+        <v>0.02548739315836447</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2137864890.650541</v>
+        <v>2254594848.404165</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0808739072841667</v>
+        <v>0.07702276887536616</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02901927136315032</v>
+        <v>0.02653228464024739</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2049185463.930828</v>
+        <v>1711359588.13711</v>
       </c>
       <c r="F45" t="n">
-        <v>0.128214753805145</v>
+        <v>0.1891322144091313</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05611257222140714</v>
+        <v>0.05026674472212021</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5127078621.526757</v>
+        <v>5037270961.912028</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1541876489728247</v>
+        <v>0.1713684982464119</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03713945382727757</v>
+        <v>0.03783184578989839</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>245</v>
+      </c>
+      <c r="J46" t="n">
+        <v>408</v>
+      </c>
+      <c r="K46" t="n">
+        <v>46.64441910376844</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4164179117.267381</v>
+        <v>5126857861.470338</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1451125771683802</v>
+        <v>0.1952538169105793</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03594754035972642</v>
+        <v>0.04781531392077541</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>183</v>
+      </c>
+      <c r="J47" t="n">
+        <v>408</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2125,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4373939823.557128</v>
+        <v>4662046219.427206</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06940423082206376</v>
+        <v>0.1104212875963517</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02680322769929157</v>
+        <v>0.03645239124740592</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>210</v>
+      </c>
+      <c r="J48" t="n">
+        <v>408</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1936056919.197196</v>
+        <v>1204692390.108961</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1606241407361712</v>
+        <v>0.1545558041033858</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03720257592766494</v>
+        <v>0.03971914175204356</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2189,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3144609097.489171</v>
+        <v>3247801234.775009</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1485244707955004</v>
+        <v>0.1170668508011692</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04955393640037385</v>
+        <v>0.03838474263773767</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>141</v>
+      </c>
+      <c r="J50" t="n">
+        <v>407</v>
+      </c>
+      <c r="K50" t="n">
+        <v>39.84393141891558</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2232,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1345095916.515423</v>
+        <v>1262974926.368754</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1920382751415897</v>
+        <v>0.1454571024230329</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03572645396827788</v>
+        <v>0.03406414503396783</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2261,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5163123234.520517</v>
+        <v>4989117341.606153</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1131501993256208</v>
+        <v>0.09521394608341115</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06142755186986909</v>
+        <v>0.04970961223168874</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>236</v>
+      </c>
+      <c r="J52" t="n">
+        <v>408</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,22 +2296,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3109167779.585596</v>
+        <v>3314102248.346596</v>
       </c>
       <c r="F53" t="n">
-        <v>0.203257041198416</v>
+        <v>0.1323683940618477</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03266337430290541</v>
+        <v>0.02528523882824063</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>56</v>
+      </c>
+      <c r="J53" t="n">
+        <v>408</v>
+      </c>
+      <c r="K53" t="n">
+        <v>56.60059137560527</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4787077485.407136</v>
+        <v>3975565834.879691</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1104171610880566</v>
+        <v>0.1297260139183699</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04365114081292359</v>
+        <v>0.03531894774740314</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>218</v>
+      </c>
+      <c r="J54" t="n">
+        <v>408</v>
+      </c>
+      <c r="K54" t="n">
+        <v>44.90414071172842</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4164777506.00764</v>
+        <v>4899114202.630202</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1457838375651438</v>
+        <v>0.1526752315835835</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02992552046222155</v>
+        <v>0.02626424875792098</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>200</v>
+      </c>
+      <c r="J55" t="n">
+        <v>408</v>
+      </c>
+      <c r="K55" t="n">
+        <v>44.6724723373552</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1738945942.067742</v>
+        <v>1305420482.430871</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1391974733341608</v>
+        <v>0.1138281183617386</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04387544003351219</v>
+        <v>0.04549183773367629</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2442,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3688108554.817673</v>
+        <v>3474658647.62695</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1337745951494967</v>
+        <v>0.1243381991314423</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02297461822027961</v>
+        <v>0.02510675788360666</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>176</v>
+      </c>
+      <c r="J57" t="n">
+        <v>407</v>
+      </c>
+      <c r="K57" t="n">
+        <v>38.12432141389043</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1416665734.55813</v>
+        <v>1180108595.162271</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1708778103234762</v>
+        <v>0.17334188814149</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03631773983254056</v>
+        <v>0.03611291054741494</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2514,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3415880897.530931</v>
+        <v>3773683496.906433</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1221613564304598</v>
+        <v>0.09351306719440687</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04548512977029175</v>
+        <v>0.03542763155096283</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>200</v>
+      </c>
+      <c r="J59" t="n">
+        <v>407</v>
+      </c>
+      <c r="K59" t="n">
+        <v>44.59050079254095</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2551,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3513389506.825598</v>
+        <v>2620340357.700196</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1337934067940598</v>
+        <v>0.1305156553001555</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02281598563445723</v>
+        <v>0.02177577353656404</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>75</v>
+      </c>
+      <c r="J60" t="n">
+        <v>403</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2592,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2283192703.4529</v>
+        <v>2509806159.761162</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1146132088645468</v>
+        <v>0.1557484639440732</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02487394052244727</v>
+        <v>0.02787793008835193</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>13</v>
+      </c>
+      <c r="J61" t="n">
+        <v>384</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2627,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2102594960.06196</v>
+        <v>1491815603.753346</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1610591648294341</v>
+        <v>0.1665710361351112</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03801612591448494</v>
+        <v>0.0406848073632597</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2662,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5210952715.334215</v>
+        <v>4690230693.094826</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1035421452728273</v>
+        <v>0.09117574726738051</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04664515878967188</v>
+        <v>0.04702350833908681</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>204</v>
+      </c>
+      <c r="J63" t="n">
+        <v>407</v>
+      </c>
+      <c r="K63" t="n">
+        <v>44.3151635230654</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2693,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4945517956.832609</v>
+        <v>5357619015.756859</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1479053919925609</v>
+        <v>0.167608635004818</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02454662832652995</v>
+        <v>0.0298509880236365</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>204</v>
+      </c>
+      <c r="J64" t="n">
+        <v>407</v>
+      </c>
+      <c r="K64" t="n">
+        <v>43.57317649452093</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2730,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4131219460.119935</v>
+        <v>3759612147.054716</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1424850031736472</v>
+        <v>0.1597859012277375</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03227982321076272</v>
+        <v>0.02662593738752694</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>301</v>
+      </c>
+      <c r="J65" t="n">
+        <v>407</v>
+      </c>
+      <c r="K65" t="n">
+        <v>44.30438468581072</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2767,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4646338891.222697</v>
+        <v>5684088306.225242</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1256373444620871</v>
+        <v>0.09819954765903349</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04126016596577629</v>
+        <v>0.04695240271140726</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>201</v>
+      </c>
+      <c r="J66" t="n">
+        <v>408</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2802,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2729314858.990425</v>
+        <v>2861912229.197933</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1026771350628643</v>
+        <v>0.09642197451714558</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03602501997408371</v>
+        <v>0.03267476764142638</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2843,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4416908926.768409</v>
+        <v>5048713835.767899</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1044460903695293</v>
+        <v>0.110214256159508</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04778774049787372</v>
+        <v>0.04283858375334183</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>222</v>
+      </c>
+      <c r="J68" t="n">
+        <v>408</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1671875511.798459</v>
+        <v>1747959127.981769</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1405935451743917</v>
+        <v>0.1621304645459707</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04091945083082097</v>
+        <v>0.04610689837614206</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2913,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2389640846.068487</v>
+        <v>2972117991.188537</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07304070292794733</v>
+        <v>0.07233672683470127</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03788492235591506</v>
+        <v>0.03243555377821978</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>54</v>
+      </c>
+      <c r="J70" t="n">
+        <v>389</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2942,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3413385361.820628</v>
+        <v>5359335008.796459</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1832924756314344</v>
+        <v>0.1805454015895714</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02946588957688955</v>
+        <v>0.03358001563778169</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>288</v>
+      </c>
+      <c r="J71" t="n">
+        <v>407</v>
+      </c>
+      <c r="K71" t="n">
+        <v>43.84717394310105</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2985,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1882511543.767007</v>
+        <v>1801079376.860647</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0738712380059522</v>
+        <v>0.1048511193296244</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03808349502846808</v>
+        <v>0.05291006217316403</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3020,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3092554513.634646</v>
+        <v>2951417884.374032</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08137739502714608</v>
+        <v>0.08416035861396137</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04631201562830147</v>
+        <v>0.03344434841414944</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,16 +3055,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2560052919.989327</v>
+        <v>2898909253.098913</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1620691271110688</v>
+        <v>0.124081747733324</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0252750545842927</v>
+        <v>0.02259201046011203</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>115</v>
+      </c>
+      <c r="J74" t="n">
+        <v>407</v>
+      </c>
+      <c r="K74" t="n">
+        <v>38.90312350689751</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3086,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1540355269.711511</v>
+        <v>1591051852.393512</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1483405073430869</v>
+        <v>0.139453441184198</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03427791230373833</v>
+        <v>0.02758012914538597</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3127,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4458416668.170671</v>
+        <v>4411231154.583396</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1086143379665202</v>
+        <v>0.113426090232914</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03038065487301661</v>
+        <v>0.03304952486190144</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>193</v>
+      </c>
+      <c r="J76" t="n">
+        <v>408</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2260929848.27986</v>
+        <v>1887396380.747222</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1265912653985245</v>
+        <v>0.1730337889420861</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02466749357998391</v>
+        <v>0.03125851710538993</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3197,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4012072324.278969</v>
+        <v>4612764123.036331</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09286838444647841</v>
+        <v>0.09341898733234059</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05522267238762472</v>
+        <v>0.04282584497058727</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>203</v>
+      </c>
+      <c r="J78" t="n">
+        <v>408</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1687388926.222696</v>
+        <v>1526676534.108035</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1574745133715343</v>
+        <v>0.1109756092167579</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03503501162666599</v>
+        <v>0.03085005862719348</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3261,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4646103688.00425</v>
+        <v>5120555102.581986</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09609813102638187</v>
+        <v>0.1052676454816687</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03662813853647956</v>
+        <v>0.03337713117135096</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>199</v>
+      </c>
+      <c r="J80" t="n">
+        <v>408</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,16 +3302,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3732199695.066169</v>
+        <v>4460595728.286373</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09410210482284717</v>
+        <v>0.1354775261767922</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02985342261050914</v>
+        <v>0.02304055934017257</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>190</v>
+      </c>
+      <c r="J81" t="n">
+        <v>407</v>
+      </c>
+      <c r="K81" t="n">
+        <v>43.63931581906449</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3501907596.421965</v>
+        <v>5367816988.429535</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1562116842232563</v>
+        <v>0.1878153233829938</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02507049931036058</v>
+        <v>0.02598887523219381</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>278</v>
+      </c>
+      <c r="J82" t="n">
+        <v>408</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2394074481.25047</v>
+        <v>1930014885.025228</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09624297746578823</v>
+        <v>0.09913027389084723</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03513865942949344</v>
+        <v>0.02773701442143728</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2411861696.339673</v>
+        <v>1720301424.435741</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09311532063593554</v>
+        <v>0.0926850572097118</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04104034222521333</v>
+        <v>0.04587881801197196</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2872272699.112992</v>
+        <v>2953998249.667908</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1573950063026552</v>
+        <v>0.1121909084498617</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04445115817508818</v>
+        <v>0.05347737173992617</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>52</v>
+      </c>
+      <c r="J85" t="n">
+        <v>401</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2153153208.186882</v>
+        <v>2490751207.597111</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1243492932595649</v>
+        <v>0.1137719152484297</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01860582927923691</v>
+        <v>0.02089414991262937</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1013398444.569718</v>
+        <v>1045191407.820736</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1613395853520525</v>
+        <v>0.1315467641772634</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03214808933734679</v>
+        <v>0.02956264783007664</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3123231542.914055</v>
+        <v>3077009341.952681</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1246789824378893</v>
+        <v>0.1712969354950684</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02995500944386606</v>
+        <v>0.03021065112794714</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>52</v>
+      </c>
+      <c r="J88" t="n">
+        <v>396</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3339746615.320464</v>
+        <v>2561545478.037565</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1443416651709368</v>
+        <v>0.1413891366489427</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03885673205405647</v>
+        <v>0.0305920163238765</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1630310098.980664</v>
+        <v>1353298312.796882</v>
       </c>
       <c r="F90" t="n">
-        <v>0.091922063575079</v>
+        <v>0.09437827552110199</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03818512135239851</v>
+        <v>0.04272815821763912</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1842445794.334237</v>
+        <v>2047715249.302433</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1377587839203749</v>
+        <v>0.172778596809273</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0571275964938473</v>
+        <v>0.04020924181774878</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2268581953.370957</v>
+        <v>1809226694.943897</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06797897685252055</v>
+        <v>0.07576278900982968</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04547496985019909</v>
+        <v>0.04379796789267559</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3724,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5000312492.065755</v>
+        <v>3363768550.306853</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1417925920176051</v>
+        <v>0.1156460933594434</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03786347549938274</v>
+        <v>0.03510225021212164</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>195</v>
+      </c>
+      <c r="J93" t="n">
+        <v>406</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2385192218.750703</v>
+        <v>1522719857.690763</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1563879833691785</v>
+        <v>0.1516244181316684</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02682744127601288</v>
+        <v>0.02862667501693074</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2849727209.949914</v>
+        <v>2944107327.315239</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1020323225384757</v>
+        <v>0.1189426022651786</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03967866958654892</v>
+        <v>0.03830632749571671</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1877660116.101074</v>
+        <v>1600513016.226821</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1261554713801326</v>
+        <v>0.1376976933587043</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02923647020177726</v>
+        <v>0.02897270081868391</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4846131962.994654</v>
+        <v>3985278039.377963</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1187045866868893</v>
+        <v>0.1190427064494147</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02687202856954836</v>
+        <v>0.02154773432224438</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>213</v>
+      </c>
+      <c r="J97" t="n">
+        <v>407</v>
+      </c>
+      <c r="K97" t="n">
+        <v>44.66413258441046</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3226148956.80035</v>
+        <v>3573004378.167691</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08295306624650828</v>
+        <v>0.1283116194495703</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02438101196290506</v>
+        <v>0.02994098491306466</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>106</v>
+      </c>
+      <c r="J98" t="n">
+        <v>404</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2284484170.536365</v>
+        <v>3303199489.632243</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1177732203408159</v>
+        <v>0.09048502631007344</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0258625898286505</v>
+        <v>0.02523831549985345</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3530899337.901172</v>
+        <v>4374360705.558424</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1790318829515371</v>
+        <v>0.1206570611900625</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0198526150301853</v>
+        <v>0.01859712745820653</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>189</v>
+      </c>
+      <c r="J100" t="n">
+        <v>408</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2177998204.725808</v>
+        <v>2191415699.206437</v>
       </c>
       <c r="F101" t="n">
-        <v>0.181781577516073</v>
+        <v>0.178784703588419</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04923072409497978</v>
+        <v>0.04419724611198197</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
